--- a/biology/Histoire de la zoologie et de la botanique/Frederick_A._Askew_Skuse/Frederick_A._Askew_Skuse.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Frederick_A._Askew_Skuse/Frederick_A._Askew_Skuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frederick A. Askew Skuse est un entomologiste britannique, né vers 1863 et mort le 10 juin 1896.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Frederick Askew Skuse étudie au British Museum avant de venir en Australie à la demande de Sir Daniel Cooper. Il arrive en 1886 et est engagé par Sir William John Macleay (1820-1891) pour travailler sur les diptères d’Australie. Le 15 octobre 1890, il devient scientifique assistant au département d’entomologie de l’Australian Museum où il succède à Arthur Sidney Olliff (1865-1895), fonction qu’il occupe jusqu’à sa mort.
 </t>
